--- a/test/templates/with-diagram.xlsx
+++ b/test/templates/with-diagram.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27311"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A768C5F-0E59-41C1-A8AD-61529641B71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08697BAA-4377-4FDF-841C-4F73730E8325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,7 +97,7 @@
     <t>End</t>
   </si>
   <si>
-    <t>Duration</t>
+    <t>Duration, days</t>
   </si>
   <si>
     <t>Cost per hour, $/h</t>
@@ -1765,7 +1765,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1991,7 +1991,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="3" t="e">
-        <f>SUM(G17:G17)</f>
+        <f>ROUND(SUM(G17:G17), 2)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2007,14 +2007,14 @@
         <v>28</v>
       </c>
       <c r="E17" s="15" t="e">
-        <f>D17-C17</f>
+        <f>ROUND(D17-C17, 2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="F17" s="16">
         <v>10</v>
       </c>
       <c r="G17" s="16" t="e">
-        <f>E17*F17*24</f>
+        <f>ROUND(E17*F17*24, 2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H17" s="3"/>
@@ -2037,14 +2037,14 @@
         <v>29</v>
       </c>
       <c r="E19" s="18" t="e">
-        <f>SUM(E16:E18)</f>
+        <f>ROUND(SUM(E16:E18), 2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>30</v>
       </c>
       <c r="G19" s="20" t="e">
-        <f>SUM(G16:G18)</f>
+        <f>ROUND(SUM(G16:G18), 2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H19" s="26"/>

--- a/test/templates/with-diagram.xlsx
+++ b/test/templates/with-diagram.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27321"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08697BAA-4377-4FDF-841C-4F73730E8325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F7BFE63-B42E-48A7-AECC-D2523C7565B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1467,62 +1467,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6119E705-197C-A3DF-077A-33B6E4EF43C3}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8A26A5FC-A6BF-C288-3D1F-487D2A38EDBF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12115800" y="266700"/>
-          <a:ext cx="1457325" cy="409575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1541,6 +1494,53 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12125325" y="962025"/>
+          <a:ext cx="1600200" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{028D3E48-C35D-18DC-BFCF-0F06DEB7C617}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DB021ED9-CFE1-B73C-5371-7299953966C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
@@ -1548,8 +1548,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12096750" y="1219200"/>
-          <a:ext cx="1600200" cy="1066800"/>
+          <a:off x="12534900" y="95250"/>
+          <a:ext cx="762000" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1765,7 +1765,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>

--- a/test/templates/with-diagram.xlsx
+++ b/test/templates/with-diagram.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27321"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27324"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F7BFE63-B42E-48A7-AECC-D2523C7565B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AC7A6BE-53B8-4FFB-AC69-AFB0E1EB8051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1765,7 +1765,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2007,7 +2007,7 @@
         <v>28</v>
       </c>
       <c r="E17" s="15" t="e">
-        <f>ROUND(D17-C17, 2)</f>
+        <f>ROUND(D17-C17, 4)</f>
         <v>#VALUE!</v>
       </c>
       <c r="F17" s="16">
